--- a/tagproject/results/annotations.xlsx
+++ b/tagproject/results/annotations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>object</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>building</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>person</t>
         </is>
       </c>
     </row>
@@ -1240,906 +1240,6 @@
         </is>
       </c>
       <c r="C54" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Lorem</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ipsum</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dolor</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>sit</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>amet</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>consectetur</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>adipiscing</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>elit</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Sed</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>eiusmod</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>tempor</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>incididunt</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ut</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>labore</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>et</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>dolore</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>magna</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>aliqua</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Ut</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>enim</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ad</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>minim</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>2</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>veniam</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>quis</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>nostrud</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>exercitation</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ullamco</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>laboris</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>nisi</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ut</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>aliquip</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ex</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>2</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ea</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>commodo</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>consequat</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>3</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Duis</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>aute</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>irure</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>dolor</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>reprehenderit</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>3</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>voluptate</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>3</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>velit</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>3</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>esse</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>3</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>cillum</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>3</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>dolore</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>3</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>eu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>3</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>fugiat</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>nulla</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>3</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>pariatur</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>4</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Excepteur</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>4</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>sint</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>occaecat</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>4</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>cupidatat</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>4</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>non</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>4</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>proident</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>4</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>sunt</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>4</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>4</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>culpa</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/tagproject/results/annotations.xlsx
+++ b/tagproject/results/annotations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,906 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lorem</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ipsum</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dolor</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sit</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>amet</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>consectetur</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>adipiscing</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>elit</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sed</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>do</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>eiusmod</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>tempor</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>incididunt</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ut</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>labore</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>dolore</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>magna</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>aliqua</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ut</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>enim</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>minim</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>veniam</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>quis</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>nostrud</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>exercitation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ullamco</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>laboris</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>nisi</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ut</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>aliquip</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ex</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ea</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>commodo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>consequat</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Duis</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>aute</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>irure</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>dolor</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>reprehenderit</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>voluptate</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>velit</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>esse</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cillum</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dolore</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>eu</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>fugiat</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>nulla</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>pariatur</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Excepteur</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sint</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>occaecat</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>cupidatat</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>proident</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>sunt</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>culpa</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tagproject/results/annotations.xlsx
+++ b/tagproject/results/annotations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2145,6 +2145,5271 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>software</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>engineer</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>invited</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>IISC</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Excited</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>trip</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>booked</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>flight</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>places</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Upon</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>arrival</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Leela</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Palace</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>thali</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Mavalli</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Tiffin</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MTR</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>3</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>3</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>3</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Lalbagh</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Botanical</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Garden</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>3</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>3</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>admired</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>3</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>3</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>3</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>3</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>3</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>3</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>bonsai</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>3</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>3</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>nearby</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>3</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>nursery</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>4</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>4</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>IISC</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>4</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>4</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>4</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ananya</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>5</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Rao</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>5</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>5</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>5</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>5</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>5</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>5</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>5</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>5</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>NLP</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>6</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>advancements</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Kannada</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>6</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>6</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>6</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>6</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>6</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>6</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>multilingual</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>6</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>6</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>7</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>During</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>7</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>they</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>7</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>sipped</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>7</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>filter</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>7</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>7</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>7</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Pak</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>7</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>7</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>discussing</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>7</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>7</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>7</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>papers</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>8</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>8</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>8</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>8</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>8</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>decided</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>8</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>8</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>9</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>9</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>9</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Cubbon</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>9</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>9</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>walked</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>9</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>9</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>UB</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>9</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>9</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Mall</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>9</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>9</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>9</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>9</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>handcrafted</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>9</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>sandalwood</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>9</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>idol</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>9</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>9</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Cauvery</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>9</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>9</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Emporium</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>10</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>10</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>10</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>10</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>10</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>10</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>10</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>10</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Vidyarthi</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>10</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bhavan</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>10</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>10</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>relished</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>10</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>crispy</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>10</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Masala</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>10</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Dosa</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>10</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>10</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>10</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>10</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>10</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>badam</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>10</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>11</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>11</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>11</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>11</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>11</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>11</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>11</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>cab</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>11</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>11</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>11</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>11</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>11</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>11</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Palace</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>11</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>11</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>11</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>11</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>11</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>11</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>12</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>12</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>12</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>went</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>12</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>12</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Chamundi</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>12</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Hills</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>12</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>12</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>12</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>12</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>12</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>massive</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>12</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Nandi</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>12</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>statue</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>13</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>13</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>heading</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>13</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>13</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>13</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>13</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>13</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>delicious</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>13</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>13</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>13</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Bisibele</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>13</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>13</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>13</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>13</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>restaurant</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>13</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>13</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>13</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>13</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>silk</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>13</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>sarees</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>13</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>13</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>13</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>14</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>14</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>14</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>14</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>14</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>spent</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>14</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>14</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>14</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>14</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>14</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Toit</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>14</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>14</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>famous</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>14</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>brewery</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>14</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>14</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>14</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>14</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>14</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>14</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>14</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>14</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>14</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>15</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>15</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>reminisced</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>15</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>15</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>15</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>15</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>15</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>15</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>IIT</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>15</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Bombay</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>15</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>15</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>enjoying</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>15</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>15</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>15</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>15</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>paneer</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>15</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>tikka</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>16</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>16</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>leaving</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>16</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>16</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>picked</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>16</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>16</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>16</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>brass</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>16</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>lamp</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>16</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>16</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>16</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>16</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>16</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>souvenir</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>17</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>17</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>17</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>17</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>17</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>flew</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>17</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>17</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>17</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>17</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>17</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>inspired</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>17</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>17</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>eager</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>17</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>implement</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>17</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>17</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>ideas</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>17</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>17</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>17</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>smallmisty</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>island</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>stood</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>lighthouse</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>named</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Unlike</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>towering</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>stretched</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>clouds</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>crooked</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>paint</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>chipped</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>1</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>2</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>But</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>2</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>2</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>thing</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>2</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>2</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>didnt</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>2</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>2</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>unshakable</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>determination</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>2</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>2</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>2</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>sailors</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tagproject/results/annotations.xlsx
+++ b/tagproject/results/annotations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,6 +1350,5884 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>smallmisty</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>island</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>stood</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>lighthouse</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>named</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Unlike</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>towering</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>stretched</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>clouds</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>crooked</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>paint</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>chipped</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>bright</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>But</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Lumy</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>thing</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>didnt</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>unshakable</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>determination</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>sailors</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Vikram,</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>software</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>engineer</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Google,</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>was</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>invited</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>global</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>B-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>IISC</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Excited</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>trip,</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>booked</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>flight</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>places</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Upon</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>arrival,</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Leela</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Palace</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>B-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>I-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>thali</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Mavalli</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Tiffin</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>(MTR)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>lunch,</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Lalbagh</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Botanical</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Garden,</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>admired</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>bonsai</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>nearby</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>nursery</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>day,</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>IISC,</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ananya</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Rao,</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>I-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>B-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>I-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>I-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>(NLP)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>advancements</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Kannada</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>multilingual</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>During</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>break,</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>they</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>sipped</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>filter</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Pak</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>I-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>discussing</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>papers</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>conference,</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>decided</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Cubbon</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Park,</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>walked</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>UB</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Mall,</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>handcrafted</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>sandalwood</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>idol</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Cauvery</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>I-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Emporium</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>I-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>evening,</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Vidyarthi</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bhavan,</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>relished</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>crispy</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Masala</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Dosa</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>I-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>badam</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>morning,</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>cab</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Mysore,</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Palace</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>went</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Chamundi</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Hills,</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>I-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>massive</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Nandi</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>statue</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>heading</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>back,</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>delicious</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Bisibele</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>I-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>restaurant</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>silk</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>sarees</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Bangalore,</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>spent</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Toit,</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>famous</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>brewery,</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Rahul,</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>reminisced</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>IIT</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Bombay</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>I-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>enjoying</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>paneer</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>tikka</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>leaving,</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>picked</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>brass</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>lamp</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>souvenir</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>morning,</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>flew</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Delhi,</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>B-LOC</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>inspired</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>eager</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>implement</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>ideas</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>B-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tagproject/results/annotations.xlsx
+++ b/tagproject/results/annotations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3172"/>
+  <dimension ref="A1:C3467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43531,10 +43531,8 @@
       </c>
     </row>
     <row r="2874">
-      <c r="A2874" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2874" t="n">
+        <v>0</v>
       </c>
       <c r="B2874" t="inlineStr">
         <is>
@@ -43548,10 +43546,8 @@
       </c>
     </row>
     <row r="2875">
-      <c r="A2875" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2875" t="n">
+        <v>0</v>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
@@ -43565,10 +43561,8 @@
       </c>
     </row>
     <row r="2876">
-      <c r="A2876" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2876" t="n">
+        <v>0</v>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
@@ -43582,10 +43576,8 @@
       </c>
     </row>
     <row r="2877">
-      <c r="A2877" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2877" t="n">
+        <v>0</v>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
@@ -43599,10 +43591,8 @@
       </c>
     </row>
     <row r="2878">
-      <c r="A2878" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2878" t="n">
+        <v>0</v>
       </c>
       <c r="B2878" t="inlineStr">
         <is>
@@ -43616,10 +43606,8 @@
       </c>
     </row>
     <row r="2879">
-      <c r="A2879" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2879" t="n">
+        <v>0</v>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
@@ -43633,10 +43621,8 @@
       </c>
     </row>
     <row r="2880">
-      <c r="A2880" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2880" t="n">
+        <v>0</v>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
@@ -43650,10 +43636,8 @@
       </c>
     </row>
     <row r="2881">
-      <c r="A2881" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2881" t="n">
+        <v>0</v>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
@@ -43667,10 +43651,8 @@
       </c>
     </row>
     <row r="2882">
-      <c r="A2882" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2882" t="n">
+        <v>0</v>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
@@ -43684,10 +43666,8 @@
       </c>
     </row>
     <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2883" t="n">
+        <v>0</v>
       </c>
       <c r="B2883" t="inlineStr">
         <is>
@@ -43701,10 +43681,8 @@
       </c>
     </row>
     <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2884" t="n">
+        <v>0</v>
       </c>
       <c r="B2884" t="inlineStr">
         <is>
@@ -43718,10 +43696,8 @@
       </c>
     </row>
     <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2885" t="n">
+        <v>0</v>
       </c>
       <c r="B2885" t="inlineStr">
         <is>
@@ -43735,10 +43711,8 @@
       </c>
     </row>
     <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="A2886" t="n">
+        <v>0</v>
       </c>
       <c r="B2886" t="inlineStr">
         <is>
@@ -43752,10 +43726,8 @@
       </c>
     </row>
     <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2887" t="n">
+        <v>1</v>
       </c>
       <c r="B2887" t="inlineStr">
         <is>
@@ -43769,10 +43741,8 @@
       </c>
     </row>
     <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2888" t="n">
+        <v>1</v>
       </c>
       <c r="B2888" t="inlineStr">
         <is>
@@ -43786,10 +43756,8 @@
       </c>
     </row>
     <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2889" t="n">
+        <v>1</v>
       </c>
       <c r="B2889" t="inlineStr">
         <is>
@@ -43803,10 +43771,8 @@
       </c>
     </row>
     <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2890" t="n">
+        <v>1</v>
       </c>
       <c r="B2890" t="inlineStr">
         <is>
@@ -43820,10 +43786,8 @@
       </c>
     </row>
     <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2891" t="n">
+        <v>1</v>
       </c>
       <c r="B2891" t="inlineStr">
         <is>
@@ -43837,10 +43801,8 @@
       </c>
     </row>
     <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2892" t="n">
+        <v>1</v>
       </c>
       <c r="B2892" t="inlineStr">
         <is>
@@ -43854,10 +43816,8 @@
       </c>
     </row>
     <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2893" t="n">
+        <v>1</v>
       </c>
       <c r="B2893" t="inlineStr">
         <is>
@@ -43871,10 +43831,8 @@
       </c>
     </row>
     <row r="2894">
-      <c r="A2894" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2894" t="n">
+        <v>1</v>
       </c>
       <c r="B2894" t="inlineStr">
         <is>
@@ -43888,10 +43846,8 @@
       </c>
     </row>
     <row r="2895">
-      <c r="A2895" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2895" t="n">
+        <v>1</v>
       </c>
       <c r="B2895" t="inlineStr">
         <is>
@@ -43905,10 +43861,8 @@
       </c>
     </row>
     <row r="2896">
-      <c r="A2896" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2896" t="n">
+        <v>1</v>
       </c>
       <c r="B2896" t="inlineStr">
         <is>
@@ -43922,10 +43876,8 @@
       </c>
     </row>
     <row r="2897">
-      <c r="A2897" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2897" t="n">
+        <v>1</v>
       </c>
       <c r="B2897" t="inlineStr">
         <is>
@@ -43939,10 +43891,8 @@
       </c>
     </row>
     <row r="2898">
-      <c r="A2898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2898" t="n">
+        <v>1</v>
       </c>
       <c r="B2898" t="inlineStr">
         <is>
@@ -43956,10 +43906,8 @@
       </c>
     </row>
     <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2899" t="n">
+        <v>1</v>
       </c>
       <c r="B2899" t="inlineStr">
         <is>
@@ -43973,10 +43921,8 @@
       </c>
     </row>
     <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2900" t="n">
+        <v>1</v>
       </c>
       <c r="B2900" t="inlineStr">
         <is>
@@ -43990,10 +43936,8 @@
       </c>
     </row>
     <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2901" t="n">
+        <v>1</v>
       </c>
       <c r="B2901" t="inlineStr">
         <is>
@@ -44007,10 +43951,8 @@
       </c>
     </row>
     <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2902" t="n">
+        <v>1</v>
       </c>
       <c r="B2902" t="inlineStr">
         <is>
@@ -44024,10 +43966,8 @@
       </c>
     </row>
     <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2903" t="n">
+        <v>1</v>
       </c>
       <c r="B2903" t="inlineStr">
         <is>
@@ -44041,10 +43981,8 @@
       </c>
     </row>
     <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2904" t="n">
+        <v>1</v>
       </c>
       <c r="B2904" t="inlineStr">
         <is>
@@ -44058,10 +43996,8 @@
       </c>
     </row>
     <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2905" t="n">
+        <v>1</v>
       </c>
       <c r="B2905" t="inlineStr">
         <is>
@@ -44075,10 +44011,8 @@
       </c>
     </row>
     <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2906" t="n">
+        <v>1</v>
       </c>
       <c r="B2906" t="inlineStr">
         <is>
@@ -44092,10 +44026,8 @@
       </c>
     </row>
     <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2907" t="n">
+        <v>1</v>
       </c>
       <c r="B2907" t="inlineStr">
         <is>
@@ -44109,10 +44041,8 @@
       </c>
     </row>
     <row r="2908">
-      <c r="A2908" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2908" t="n">
+        <v>1</v>
       </c>
       <c r="B2908" t="inlineStr">
         <is>
@@ -44126,10 +44056,8 @@
       </c>
     </row>
     <row r="2909">
-      <c r="A2909" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2909" t="n">
+        <v>1</v>
       </c>
       <c r="B2909" t="inlineStr">
         <is>
@@ -44143,10 +44071,8 @@
       </c>
     </row>
     <row r="2910">
-      <c r="A2910" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2910" t="n">
+        <v>1</v>
       </c>
       <c r="B2910" t="inlineStr">
         <is>
@@ -44160,10 +44086,8 @@
       </c>
     </row>
     <row r="2911">
-      <c r="A2911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2911" t="n">
+        <v>2</v>
       </c>
       <c r="B2911" t="inlineStr">
         <is>
@@ -44177,10 +44101,8 @@
       </c>
     </row>
     <row r="2912">
-      <c r="A2912" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2912" t="n">
+        <v>2</v>
       </c>
       <c r="B2912" t="inlineStr">
         <is>
@@ -44194,10 +44116,8 @@
       </c>
     </row>
     <row r="2913">
-      <c r="A2913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2913" t="n">
+        <v>2</v>
       </c>
       <c r="B2913" t="inlineStr">
         <is>
@@ -44211,10 +44131,8 @@
       </c>
     </row>
     <row r="2914">
-      <c r="A2914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2914" t="n">
+        <v>2</v>
       </c>
       <c r="B2914" t="inlineStr">
         <is>
@@ -44228,10 +44146,8 @@
       </c>
     </row>
     <row r="2915">
-      <c r="A2915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2915" t="n">
+        <v>2</v>
       </c>
       <c r="B2915" t="inlineStr">
         <is>
@@ -44245,10 +44161,8 @@
       </c>
     </row>
     <row r="2916">
-      <c r="A2916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2916" t="n">
+        <v>2</v>
       </c>
       <c r="B2916" t="inlineStr">
         <is>
@@ -44262,10 +44176,8 @@
       </c>
     </row>
     <row r="2917">
-      <c r="A2917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2917" t="n">
+        <v>2</v>
       </c>
       <c r="B2917" t="inlineStr">
         <is>
@@ -44279,10 +44191,8 @@
       </c>
     </row>
     <row r="2918">
-      <c r="A2918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2918" t="n">
+        <v>2</v>
       </c>
       <c r="B2918" t="inlineStr">
         <is>
@@ -44296,10 +44206,8 @@
       </c>
     </row>
     <row r="2919">
-      <c r="A2919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2919" t="n">
+        <v>2</v>
       </c>
       <c r="B2919" t="inlineStr">
         <is>
@@ -44313,10 +44221,8 @@
       </c>
     </row>
     <row r="2920">
-      <c r="A2920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2920" t="n">
+        <v>2</v>
       </c>
       <c r="B2920" t="inlineStr">
         <is>
@@ -44330,10 +44236,8 @@
       </c>
     </row>
     <row r="2921">
-      <c r="A2921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2921" t="n">
+        <v>2</v>
       </c>
       <c r="B2921" t="inlineStr">
         <is>
@@ -44347,10 +44251,8 @@
       </c>
     </row>
     <row r="2922">
-      <c r="A2922" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2922" t="n">
+        <v>2</v>
       </c>
       <c r="B2922" t="inlineStr">
         <is>
@@ -44364,10 +44266,8 @@
       </c>
     </row>
     <row r="2923">
-      <c r="A2923" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2923" t="n">
+        <v>2</v>
       </c>
       <c r="B2923" t="inlineStr">
         <is>
@@ -44381,10 +44281,8 @@
       </c>
     </row>
     <row r="2924">
-      <c r="A2924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2924" t="n">
+        <v>2</v>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
@@ -44398,10 +44296,8 @@
       </c>
     </row>
     <row r="2925">
-      <c r="A2925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2925" t="n">
+        <v>2</v>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
@@ -44415,10 +44311,8 @@
       </c>
     </row>
     <row r="2926">
-      <c r="A2926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2926" t="n">
+        <v>2</v>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
@@ -44432,10 +44326,8 @@
       </c>
     </row>
     <row r="2927">
-      <c r="A2927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A2927" t="n">
+        <v>2</v>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
@@ -48118,6 +48010,4453 @@
         </is>
       </c>
       <c r="C3172" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
+      <c r="C3173" t="inlineStr">
+        <is>
+          <t>B-PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>Worked</t>
+        </is>
+      </c>
+      <c r="C3174" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3175" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C3176" t="inlineStr">
+        <is>
+          <t>B-ORG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3177" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>drove</t>
+        </is>
+      </c>
+      <c r="C3178" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C3179" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="C3180" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C3181" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C3182" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>moped</t>
+        </is>
+      </c>
+      <c r="C3183" t="inlineStr">
+        <is>
+          <t>B-MISC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>Excited</t>
+        </is>
+      </c>
+      <c r="C3184" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C3185" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3186" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>trip</t>
+        </is>
+      </c>
+      <c r="C3187" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3188" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>booked</t>
+        </is>
+      </c>
+      <c r="C3189" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C3190" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>flight</t>
+        </is>
+      </c>
+      <c r="C3191" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3192" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C3192" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3193" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C3193" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3194" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C3194" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3195" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C3195" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3196" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3196" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3197" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="C3197" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3198" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3198" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3199" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C3199" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3200" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C3200" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3201" t="inlineStr">
+        <is>
+          <t>places</t>
+        </is>
+      </c>
+      <c r="C3201" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3202" t="inlineStr">
+        <is>
+          <t>visit</t>
+        </is>
+      </c>
+      <c r="C3202" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3203" t="inlineStr">
+        <is>
+          <t>Upon</t>
+        </is>
+      </c>
+      <c r="C3203" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3204" t="inlineStr">
+        <is>
+          <t>arrival</t>
+        </is>
+      </c>
+      <c r="C3204" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3205" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+      <c r="C3206" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C3207" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C3208" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>Leela</t>
+        </is>
+      </c>
+      <c r="C3209" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>Palace</t>
+        </is>
+      </c>
+      <c r="C3210" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3211" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="C3212" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3213" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3213" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3214" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="C3214" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3215" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="C3215" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3216" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="C3216" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3217" t="inlineStr">
+        <is>
+          <t>thali</t>
+        </is>
+      </c>
+      <c r="C3217" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3218" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3218" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3219" t="inlineStr">
+        <is>
+          <t>Mavalli</t>
+        </is>
+      </c>
+      <c r="C3219" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>Tiffin</t>
+        </is>
+      </c>
+      <c r="C3220" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="C3221" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>MTR</t>
+        </is>
+      </c>
+      <c r="C3222" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="C3223" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>lunch</t>
+        </is>
+      </c>
+      <c r="C3224" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3225" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C3226" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>Lalbagh</t>
+        </is>
+      </c>
+      <c r="C3227" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>Botanical</t>
+        </is>
+      </c>
+      <c r="C3228" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3229" t="inlineStr">
+        <is>
+          <t>Garden</t>
+        </is>
+      </c>
+      <c r="C3229" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3230" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C3230" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3231" t="inlineStr">
+        <is>
+          <t>admired</t>
+        </is>
+      </c>
+      <c r="C3231" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3232" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3232" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3233" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C3233" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3234" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="C3234" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3235" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3235" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3236" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="C3236" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3237" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3237" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3238" t="inlineStr">
+        <is>
+          <t>bonsai</t>
+        </is>
+      </c>
+      <c r="C3238" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3239" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C3239" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3240" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C3240" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3241" t="inlineStr">
+        <is>
+          <t>nearby</t>
+        </is>
+      </c>
+      <c r="C3241" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3242" t="inlineStr">
+        <is>
+          <t>nursery</t>
+        </is>
+      </c>
+      <c r="C3242" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3243" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C3243" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3244" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C3244" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3245" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="C3245" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3246" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C3246" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3247" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="C3247" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3248" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3248" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3249" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C3249" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3250" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3250" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3251" t="inlineStr">
+        <is>
+          <t>IISC</t>
+        </is>
+      </c>
+      <c r="C3251" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C3252" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3253" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3254" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="C3254" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3255" t="inlineStr">
+        <is>
+          <t>Dr</t>
+        </is>
+      </c>
+      <c r="C3255" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3256" t="inlineStr">
+        <is>
+          <t>Ananya</t>
+        </is>
+      </c>
+      <c r="C3256" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3257" t="inlineStr">
+        <is>
+          <t>Rao</t>
+        </is>
+      </c>
+      <c r="C3257" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3258" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3258" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3259" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="C3259" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3260" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="C3260" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C3261" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="C3262" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="C3263" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>Processing</t>
+        </is>
+      </c>
+      <c r="C3264" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>NLP</t>
+        </is>
+      </c>
+      <c r="C3265" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>advancements</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>Kannada</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C3277" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="C3278" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>multilingual</t>
+        </is>
+      </c>
+      <c r="C3279" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C3280" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="C3281" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>During</t>
+        </is>
+      </c>
+      <c r="C3282" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3283" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
+      <c r="C3284" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>they</t>
+        </is>
+      </c>
+      <c r="C3285" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>sipped</t>
+        </is>
+      </c>
+      <c r="C3286" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>filter</t>
+        </is>
+      </c>
+      <c r="C3287" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>coffee</t>
+        </is>
+      </c>
+      <c r="C3288" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3289" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>enjoyed</t>
+        </is>
+      </c>
+      <c r="C3290" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C3291" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>Pak</t>
+        </is>
+      </c>
+      <c r="C3292" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="C3293" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>discussing</t>
+        </is>
+      </c>
+      <c r="C3294" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C3295" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C3296" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>papers</t>
+        </is>
+      </c>
+      <c r="C3297" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>After</t>
+        </is>
+      </c>
+      <c r="C3298" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3299" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>conference</t>
+        </is>
+      </c>
+      <c r="C3300" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C3301" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>decided</t>
+        </is>
+      </c>
+      <c r="C3302" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C3303" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="C3304" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C3305" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="C3306" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C3307" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>Cubbon</t>
+        </is>
+      </c>
+      <c r="C3308" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C3309" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>walked</t>
+        </is>
+      </c>
+      <c r="C3310" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>through</t>
+        </is>
+      </c>
+      <c r="C3311" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3312" t="inlineStr">
+        <is>
+          <t>UB</t>
+        </is>
+      </c>
+      <c r="C3312" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3313" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C3313" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3314" t="inlineStr">
+        <is>
+          <t>Mall</t>
+        </is>
+      </c>
+      <c r="C3314" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3315" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3315" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3316" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="C3316" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3317" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3317" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3318" t="inlineStr">
+        <is>
+          <t>handcrafted</t>
+        </is>
+      </c>
+      <c r="C3318" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3319" t="inlineStr">
+        <is>
+          <t>sandalwood</t>
+        </is>
+      </c>
+      <c r="C3319" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3320" t="inlineStr">
+        <is>
+          <t>idol</t>
+        </is>
+      </c>
+      <c r="C3320" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3321" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C3321" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3322" t="inlineStr">
+        <is>
+          <t>Cauvery</t>
+        </is>
+      </c>
+      <c r="C3322" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3323" t="inlineStr">
+        <is>
+          <t>Handicrafts</t>
+        </is>
+      </c>
+      <c r="C3323" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3324" t="inlineStr">
+        <is>
+          <t>Emporium</t>
+        </is>
+      </c>
+      <c r="C3324" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3325" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="C3325" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3326" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3326" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3327" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="C3327" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3328" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3328" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3329" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C3329" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3330" t="inlineStr">
+        <is>
+          <t>dinner</t>
+        </is>
+      </c>
+      <c r="C3330" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3331" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3331" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3332" t="inlineStr">
+        <is>
+          <t>Vidyarthi</t>
+        </is>
+      </c>
+      <c r="C3332" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3333" t="inlineStr">
+        <is>
+          <t>Bhavan</t>
+        </is>
+      </c>
+      <c r="C3333" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3334" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C3334" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3335" t="inlineStr">
+        <is>
+          <t>relished</t>
+        </is>
+      </c>
+      <c r="C3335" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3336" t="inlineStr">
+        <is>
+          <t>crispy</t>
+        </is>
+      </c>
+      <c r="C3336" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3337" t="inlineStr">
+        <is>
+          <t>Masala</t>
+        </is>
+      </c>
+      <c r="C3337" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3338" t="inlineStr">
+        <is>
+          <t>Dosa</t>
+        </is>
+      </c>
+      <c r="C3338" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3339" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3339" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3340" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3340" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3341" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C3341" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3342" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C3342" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3343" t="inlineStr">
+        <is>
+          <t>badam</t>
+        </is>
+      </c>
+      <c r="C3343" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3344" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="C3344" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3345" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C3345" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3346" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="C3346" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3347" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="C3347" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3348" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3348" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3349" t="inlineStr">
+        <is>
+          <t>took</t>
+        </is>
+      </c>
+      <c r="C3349" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3350" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3350" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3351" t="inlineStr">
+        <is>
+          <t>cab</t>
+        </is>
+      </c>
+      <c r="C3351" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3352" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C3352" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3353" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C3353" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3354" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C3354" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3355" t="inlineStr">
+        <is>
+          <t>visited</t>
+        </is>
+      </c>
+      <c r="C3355" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3356" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3356" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3357" t="inlineStr">
+        <is>
+          <t>Palace</t>
+        </is>
+      </c>
+      <c r="C3357" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3358" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3358" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3359" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="C3359" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3360" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C3360" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3361" t="inlineStr">
+        <is>
+          <t>its</t>
+        </is>
+      </c>
+      <c r="C3361" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3362" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="C3362" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3363" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="C3363" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3364" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="C3364" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3365" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="C3365" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3366" t="inlineStr">
+        <is>
+          <t>went</t>
+        </is>
+      </c>
+      <c r="C3366" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3367" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C3367" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3368" t="inlineStr">
+        <is>
+          <t>Chamundi</t>
+        </is>
+      </c>
+      <c r="C3368" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3369" t="inlineStr">
+        <is>
+          <t>Hills</t>
+        </is>
+      </c>
+      <c r="C3369" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3370" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C3370" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3371" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3371" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3372" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="C3372" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3373" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="C3373" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3374" t="inlineStr">
+        <is>
+          <t>massive</t>
+        </is>
+      </c>
+      <c r="C3374" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3375" t="inlineStr">
+        <is>
+          <t>Nandi</t>
+        </is>
+      </c>
+      <c r="C3375" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3376" t="inlineStr">
+        <is>
+          <t>statue</t>
+        </is>
+      </c>
+      <c r="C3376" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3377" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="C3377" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3378" t="inlineStr">
+        <is>
+          <t>heading</t>
+        </is>
+      </c>
+      <c r="C3378" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3379" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="C3379" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3380" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3380" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3381" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="C3381" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3382" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3382" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3383" t="inlineStr">
+        <is>
+          <t>delicious</t>
+        </is>
+      </c>
+      <c r="C3383" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3384" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="C3384" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3385" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C3385" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3386" t="inlineStr">
+        <is>
+          <t>Bisibele</t>
+        </is>
+      </c>
+      <c r="C3386" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3387" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C3387" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3388" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3388" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3389" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="C3389" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3390" t="inlineStr">
+        <is>
+          <t>restaurant</t>
+        </is>
+      </c>
+      <c r="C3390" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3391" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3391" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3392" t="inlineStr">
+        <is>
+          <t>purchased</t>
+        </is>
+      </c>
+      <c r="C3392" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3393" t="inlineStr">
+        <is>
+          <t>Mysore</t>
+        </is>
+      </c>
+      <c r="C3393" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3394" t="inlineStr">
+        <is>
+          <t>silk</t>
+        </is>
+      </c>
+      <c r="C3394" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3395" t="inlineStr">
+        <is>
+          <t>sarees</t>
+        </is>
+      </c>
+      <c r="C3395" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3396" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C3396" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3397" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C3397" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3398" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="C3398" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3399" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="C3399" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3400" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C3400" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3401" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="C3401" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3402" t="inlineStr">
+        <is>
+          <t>Vikram</t>
+        </is>
+      </c>
+      <c r="C3402" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3403" t="inlineStr">
+        <is>
+          <t>spent</t>
+        </is>
+      </c>
+      <c r="C3403" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3404" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C3404" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3405" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="C3405" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3406" t="inlineStr">
+        <is>
+          <t>evening</t>
+        </is>
+      </c>
+      <c r="C3406" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3407" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3407" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3408" t="inlineStr">
+        <is>
+          <t>Toit</t>
+        </is>
+      </c>
+      <c r="C3408" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3409" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3409" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3410" t="inlineStr">
+        <is>
+          <t>famous</t>
+        </is>
+      </c>
+      <c r="C3410" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3411" t="inlineStr">
+        <is>
+          <t>brewery</t>
+        </is>
+      </c>
+      <c r="C3411" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3412" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
+      <c r="C3412" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3413" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3413" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3414" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="C3414" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3415" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="C3415" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3416" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
+      <c r="C3416" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3417" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C3417" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3418" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
+      <c r="C3418" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3419" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="C3419" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3420" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="C3420" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>They</t>
+        </is>
+      </c>
+      <c r="C3421" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3422" t="inlineStr">
+        <is>
+          <t>reminisced</t>
+        </is>
+      </c>
+      <c r="C3422" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3423" t="inlineStr">
+        <is>
+          <t>about</t>
+        </is>
+      </c>
+      <c r="C3423" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3424" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="C3424" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3425" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="C3425" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3426" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="C3426" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3427" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="C3427" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3428" t="inlineStr">
+        <is>
+          <t>IIT</t>
+        </is>
+      </c>
+      <c r="C3428" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3429" t="inlineStr">
+        <is>
+          <t>Bombay</t>
+        </is>
+      </c>
+      <c r="C3429" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3430" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="C3430" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3431" t="inlineStr">
+        <is>
+          <t>enjoying</t>
+        </is>
+      </c>
+      <c r="C3431" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3432" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3432" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3433" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="C3433" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3434" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C3434" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3435" t="inlineStr">
+        <is>
+          <t>paneer</t>
+        </is>
+      </c>
+      <c r="C3435" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3436" t="inlineStr">
+        <is>
+          <t>tikka</t>
+        </is>
+      </c>
+      <c r="C3436" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3437" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="C3437" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3438" t="inlineStr">
+        <is>
+          <t>leaving</t>
+        </is>
+      </c>
+      <c r="C3438" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3439" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3439" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3440" t="inlineStr">
+        <is>
+          <t>picked</t>
+        </is>
+      </c>
+      <c r="C3440" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3441" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="C3441" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3442" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3442" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3443" t="inlineStr">
+        <is>
+          <t>brass</t>
+        </is>
+      </c>
+      <c r="C3443" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3444" t="inlineStr">
+        <is>
+          <t>lamp</t>
+        </is>
+      </c>
+      <c r="C3444" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3445" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C3445" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3446" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="C3446" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3447" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="C3447" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3448" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C3448" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3449" t="inlineStr">
+        <is>
+          <t>souvenir</t>
+        </is>
+      </c>
+      <c r="C3449" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3450" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="C3450" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3451" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="C3451" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3452" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="C3452" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3453" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C3453" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3454" t="inlineStr">
+        <is>
+          <t>flew</t>
+        </is>
+      </c>
+      <c r="C3454" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3455" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="C3455" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3456" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C3456" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3457" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C3457" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3458" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="C3458" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3459" t="inlineStr">
+        <is>
+          <t>inspired</t>
+        </is>
+      </c>
+      <c r="C3459" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3460" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="C3460" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3461" t="inlineStr">
+        <is>
+          <t>eager</t>
+        </is>
+      </c>
+      <c r="C3461" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3462" t="inlineStr">
+        <is>
+          <t>implement</t>
+        </is>
+      </c>
+      <c r="C3462" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3463" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="C3463" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3464" t="inlineStr">
+        <is>
+          <t>ideas</t>
+        </is>
+      </c>
+      <c r="C3464" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3465" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C3465" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3466" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="C3466" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3467" t="inlineStr">
+        <is>
+          <t>research</t>
+        </is>
+      </c>
+      <c r="C3467" t="inlineStr">
         <is>
           <t>O</t>
         </is>
